--- a/modules/data/serodata.xlsx
+++ b/modules/data/serodata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winter/Dropbox/SISMID/lectures/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winter/Dropbox/Git/SISMID-2024/modules/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA4D740-2250-124A-B8F7-258C53A0EA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9601FB5-868F-D04D-8E1A-B73AED0F9365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{309B8656-3C15-5343-9BC2-7A68AE0F525C}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{309B8656-3C15-5343-9BC2-7A68AE0F525C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="2" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>188.85448916000001</t>
   </si>
   <si>
-    <t>mIU/mL antibody concentration per EIA</t>
-  </si>
-  <si>
     <t>age in years</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>unique number for each observation</t>
+  </si>
+  <si>
+    <t>IgG  antibody concentration in mIU/mL</t>
   </si>
 </sst>
 </file>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEBE607-EE1C-2343-8DD2-0886FC4C82B5}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -984,24 +984,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1020,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1042,10 +1042,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941FDEDB-467C-4D4F-8659-09055F30848E}">
   <dimension ref="A1:E652"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1069,7 +1069,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>

--- a/modules/data/serodata.xlsx
+++ b/modules/data/serodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winter/Dropbox/Git/SISMID-2024/modules/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9601FB5-868F-D04D-8E1A-B73AED0F9365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255C1002-D7B6-5744-B17D-3523753FFDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{309B8656-3C15-5343-9BC2-7A68AE0F525C}"/>
   </bookViews>
@@ -92,7 +92,7 @@
     <t>unique number for each observation</t>
   </si>
   <si>
-    <t>IgG  antibody concentration in mIU/mL</t>
+    <t>IgG  antibody concentration in IU/mL</t>
   </si>
 </sst>
 </file>
